--- a/alpha/value.xlsx
+++ b/alpha/value.xlsx
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3351"/>
+  <dimension ref="A1:B3384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3318" workbookViewId="0">
-      <selection activeCell="D3344" sqref="D3344"/>
+    <sheetView tabSelected="1" topLeftCell="A3350" workbookViewId="0">
+      <selection activeCell="A3352" sqref="A3352:A3384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27205,6 +27205,270 @@
         <v>1.8184356592606732</v>
       </c>
     </row>
+    <row r="3352" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3352" s="1">
+        <v>20201014</v>
+      </c>
+      <c r="B3352" s="3">
+        <v>1.8227418954898902</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3353" s="1">
+        <v>20201015</v>
+      </c>
+      <c r="B3353" s="3">
+        <v>1.829734382657479</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3354" s="1">
+        <v>20201016</v>
+      </c>
+      <c r="B3354" s="3">
+        <v>1.8303220100658717</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3355" s="1">
+        <v>20201019</v>
+      </c>
+      <c r="B3355" s="3">
+        <v>1.8293247316697303</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3356" s="1">
+        <v>20201020</v>
+      </c>
+      <c r="B3356" s="3">
+        <v>1.8231105791910596</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3357" s="1">
+        <v>20201021</v>
+      </c>
+      <c r="B3357" s="3">
+        <v>1.8312555775452311</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3358" s="1">
+        <v>20201022</v>
+      </c>
+      <c r="B3358" s="3">
+        <v>1.8287283295411665</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3359" s="1">
+        <v>20201023</v>
+      </c>
+      <c r="B3359" s="3">
+        <v>1.8376751632582329</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3360" s="1">
+        <v>20201026</v>
+      </c>
+      <c r="B3360" s="3">
+        <v>1.8389247579634578</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3361" s="1">
+        <v>20201027</v>
+      </c>
+      <c r="B3361" s="3">
+        <v>1.8358085696251283</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3362" s="1">
+        <v>20201028</v>
+      </c>
+      <c r="B3362" s="3">
+        <v>1.8360262295047471</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3363" s="1">
+        <v>20201029</v>
+      </c>
+      <c r="B3363" s="3">
+        <v>1.8405467423812827</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3364" s="1">
+        <v>20201030</v>
+      </c>
+      <c r="B3364" s="3">
+        <v>1.847528771656745</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3365" s="1">
+        <v>20201102</v>
+      </c>
+      <c r="B3365" s="3">
+        <v>1.8458028366579089</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3366" s="1">
+        <v>20201103</v>
+      </c>
+      <c r="B3366" s="3">
+        <v>1.8372704871636016</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3367" s="1">
+        <v>20201104</v>
+      </c>
+      <c r="B3367" s="3">
+        <v>1.8388423001428236</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3368" s="1">
+        <v>20201105</v>
+      </c>
+      <c r="B3368" s="3">
+        <v>1.8384429054053053</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3369" s="1">
+        <v>20201106</v>
+      </c>
+      <c r="B3369" s="3">
+        <v>1.8503689208316441</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3370" s="1">
+        <v>20201109</v>
+      </c>
+      <c r="B3370" s="3">
+        <v>1.8436162365575099</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3371" s="1">
+        <v>20201110</v>
+      </c>
+      <c r="B3371" s="3">
+        <v>1.8459249926903141</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3372" s="1">
+        <v>20201111</v>
+      </c>
+      <c r="B3372" s="3">
+        <v>1.8658878459484132</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3373" s="1">
+        <v>20201112</v>
+      </c>
+      <c r="B3373" s="3">
+        <v>1.8665432964302646</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3374" s="1">
+        <v>20201113</v>
+      </c>
+      <c r="B3374" s="3">
+        <v>1.8563032016400398</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3375" s="1">
+        <v>20201116</v>
+      </c>
+      <c r="B3375" s="3">
+        <v>1.8756687681465558</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3376" s="1">
+        <v>20201117</v>
+      </c>
+      <c r="B3376" s="3">
+        <v>1.8852949146422455</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3377" s="1">
+        <v>20201118</v>
+      </c>
+      <c r="B3377" s="3">
+        <v>1.8853993078997175</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3378" s="1">
+        <v>20201119</v>
+      </c>
+      <c r="B3378" s="3">
+        <v>1.8798660872864841</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3379" s="1">
+        <v>20201120</v>
+      </c>
+      <c r="B3379" s="3">
+        <v>1.8769109796331807</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3380" s="1">
+        <v>20201123</v>
+      </c>
+      <c r="B3380" s="3">
+        <v>1.8872511330989257</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3381" s="1">
+        <v>20201124</v>
+      </c>
+      <c r="B3381" s="3">
+        <v>1.8833094912986057</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3382" s="1">
+        <v>20201125</v>
+      </c>
+      <c r="B3382" s="3">
+        <v>1.8807196055575393</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3383" s="1">
+        <v>20201126</v>
+      </c>
+      <c r="B3383" s="3">
+        <v>1.8835777174678232</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3384" s="1">
+        <v>20201127</v>
+      </c>
+      <c r="B3384" s="3">
+        <v>1.8856236472210279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
